--- a/画面項目定義/admin画面項目定義.xlsx
+++ b/画面項目定義/admin画面項目定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29279DF6-C4A6-4211-922E-D92188C2C531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BED6598-ED24-4919-99A3-2045F5E139E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="14123" xr2:uid="{32631780-4AE3-4EB2-A3E6-F10F788E1539}"/>
+    <workbookView xWindow="1042" yWindow="1042" windowWidth="13583" windowHeight="12600" xr2:uid="{32631780-4AE3-4EB2-A3E6-F10F788E1539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,44 +86,12 @@
     <t>URLが正しいかチェック</t>
   </si>
   <si>
-    <r>
-      <t>admin_1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に遷移</t>
-    </r>
-  </si>
-  <si>
     <t>ホテル管理タブ</t>
   </si>
   <si>
     <t>「ホテル管理」</t>
   </si>
   <si>
-    <r>
-      <t>admin_2.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に遷移</t>
-    </r>
-  </si>
-  <si>
     <t>ログアウトリンク</t>
   </si>
   <si>
@@ -133,22 +101,6 @@
     <t>「ログアウト」</t>
   </si>
   <si>
-    <r>
-      <t>login.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に遷移</t>
-    </r>
-  </si>
-  <si>
     <t>登録情報確認</t>
   </si>
   <si>
@@ -177,13 +129,37 @@
   </si>
   <si>
     <t>JavaScriptで動的表示</t>
+  </si>
+  <si>
+    <t>会員管理画面に遷移</t>
+    <rPh sb="0" eb="4">
+      <t>カイインカンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル管理画面に遷移</t>
+    <rPh sb="3" eb="7">
+      <t>カンリガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,12 +176,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -247,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,17 +557,17 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="23.8125" customWidth="1"/>
     <col min="6" max="6" width="37.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.9">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -637,7 +607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="52.9">
+    <row r="3" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -654,12 +624,12 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
+      <c r="A4" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="52.9">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -668,38 +638,38 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="52.9">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="88.15">
+    <row r="6" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -708,57 +678,57 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="52.9">
+    <row r="7" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="123.4">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>